--- a/ProjectAnalysis/MachiningBOMs.xlsx
+++ b/ProjectAnalysis/MachiningBOMs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,9 +25,139 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+  <si>
+    <t>液压机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗铣基准面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP02</t>
+  </si>
+  <si>
+    <t>OP03</t>
+  </si>
+  <si>
+    <t>OP04</t>
+  </si>
+  <si>
+    <t>OP05</t>
+  </si>
+  <si>
+    <t>OP06</t>
+  </si>
+  <si>
+    <t>OP07</t>
+  </si>
+  <si>
+    <t>OP08</t>
+  </si>
+  <si>
+    <t>精铣基准面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗铣A面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗铣B面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精铣A面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精铣B面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗扩C孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精铣C孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传动轴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传动轴2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码类别Z（标识装配单元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品的设计图号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该项装配单元的装配序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +173,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -52,12 +191,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -66,9 +220,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,12 +547,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K9:M9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -410,13 +638,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>